--- a/data/meta.xlsx
+++ b/data/meta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaejungscene/Projects/Jag-Gwae-Won-Lim/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A27DAE9-5603-0044-AE6C-9DF3F74D0F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C53EFA-BC78-0648-8BB4-5BF6A3DBEE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="14800" windowHeight="8020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19700" yWindow="-28300" windowWidth="34400" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="343">
   <si>
     <t>강산업 물품</t>
   </si>
@@ -1048,6 +1048,21 @@
   </si>
   <si>
     <t>보류 4500</t>
+  </si>
+  <si>
+    <t>보류 9900</t>
+  </si>
+  <si>
+    <t>보류 76800</t>
+  </si>
+  <si>
+    <t>비고</t>
+  </si>
+  <si>
+    <t>검색 sample 이상</t>
+  </si>
+  <si>
+    <t>검색 sample 1</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1151,6 +1166,7 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4727,26 +4743,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A1EAE62-FAFA-4360-9842-7E24AE1E7A7E}">
   <dimension ref="A1:C406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A365" workbookViewId="0">
-      <selection activeCell="D370" sqref="D370"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
     <col min="4" max="4" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17">
+    <row r="1" spans="1:3" ht="17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="17">
+      <c r="C1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -4754,7 +4774,7 @@
         <v>27800</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17">
+    <row r="3" spans="1:3" ht="17">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -4762,7 +4782,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17">
+    <row r="4" spans="1:3" ht="17">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -4770,7 +4790,7 @@
         <v>26500</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17">
+    <row r="5" spans="1:3" ht="17">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -4778,7 +4798,7 @@
         <v>20200</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17">
+    <row r="6" spans="1:3" ht="17">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -4786,7 +4806,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17">
+    <row r="7" spans="1:3" ht="17">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -4794,7 +4814,7 @@
         <v>19100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17">
+    <row r="8" spans="1:3" ht="17">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -4802,7 +4822,7 @@
         <v>23400</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17">
+    <row r="9" spans="1:3" ht="17">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -4810,7 +4830,7 @@
         <v>18700</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17">
+    <row r="10" spans="1:3" ht="17">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -4818,7 +4838,7 @@
         <v>30600</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17">
+    <row r="11" spans="1:3" ht="17">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -4826,7 +4846,7 @@
         <v>32200</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17">
+    <row r="12" spans="1:3" ht="17">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -4834,7 +4854,7 @@
         <v>28300</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17">
+    <row r="13" spans="1:3" ht="17">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
@@ -4842,7 +4862,7 @@
         <v>11700</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17">
+    <row r="14" spans="1:3" ht="17">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -4850,15 +4870,18 @@
         <v>93500</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17">
+    <row r="15" spans="1:3" ht="17">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="4">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="17">
+      <c r="B15" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17">
       <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
@@ -4866,7 +4889,7 @@
         <v>68000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17">
+    <row r="17" spans="1:3" ht="17">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
@@ -4874,7 +4897,7 @@
         <v>122000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17">
+    <row r="18" spans="1:3" ht="17">
       <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
@@ -4882,7 +4905,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17">
+    <row r="19" spans="1:3" ht="17">
       <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
@@ -4890,7 +4913,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17">
+    <row r="20" spans="1:3" ht="17">
       <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
@@ -4898,7 +4921,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17">
+    <row r="21" spans="1:3" ht="17">
       <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
@@ -4906,7 +4929,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17">
+    <row r="22" spans="1:3" ht="17">
       <c r="A22" s="3" t="s">
         <v>41</v>
       </c>
@@ -4914,7 +4937,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17">
+    <row r="23" spans="1:3" ht="17">
       <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
@@ -4922,7 +4945,7 @@
         <v>33100</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17">
+    <row r="24" spans="1:3" ht="17">
       <c r="A24" s="3" t="s">
         <v>45</v>
       </c>
@@ -4930,7 +4953,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17">
+    <row r="25" spans="1:3" ht="17">
       <c r="A25" s="3" t="s">
         <v>47</v>
       </c>
@@ -4938,7 +4961,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17">
+    <row r="26" spans="1:3" ht="17">
       <c r="A26" s="5" t="s">
         <v>48</v>
       </c>
@@ -4946,15 +4969,18 @@
         <v>107520</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="17">
+    <row r="27" spans="1:3" ht="17">
       <c r="A27" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="8">
-        <v>76800</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="17">
+      <c r="B27" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="C27" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17">
       <c r="A28" s="6" t="s">
         <v>52</v>
       </c>
@@ -4962,7 +4988,7 @@
         <v>18800</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17">
+    <row r="29" spans="1:3" ht="17">
       <c r="A29" s="6" t="s">
         <v>54</v>
       </c>
@@ -4970,7 +4996,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="17">
+    <row r="30" spans="1:3" ht="17">
       <c r="A30" s="5" t="s">
         <v>56</v>
       </c>
@@ -4978,7 +5004,7 @@
         <v>23500</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="17">
+    <row r="31" spans="1:3" ht="17">
       <c r="A31" s="5" t="s">
         <v>58</v>
       </c>
@@ -4986,7 +5012,7 @@
         <v>23200</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="17">
+    <row r="32" spans="1:3" ht="17">
       <c r="A32" s="5" t="s">
         <v>60</v>
       </c>
